--- a/上机作业顺序.xlsx
+++ b/上机作业顺序.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\数据挖掘助管\Data_mining_2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF313740-B3B4-481A-AF84-5A564B2A66B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,842 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="272">
+  <si>
+    <t>汇报序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011030</t>
+  </si>
+  <si>
+    <t>柳博文</t>
+  </si>
+  <si>
+    <t>2011148</t>
+  </si>
+  <si>
+    <t>龚晨伟</t>
+  </si>
+  <si>
+    <t>2011242</t>
+  </si>
+  <si>
+    <t>冯昱颖</t>
+  </si>
+  <si>
+    <t>2011391</t>
+  </si>
+  <si>
+    <t>阎思祺</t>
+  </si>
+  <si>
+    <t>2011460</t>
+  </si>
+  <si>
+    <t>吴姸姸</t>
+  </si>
+  <si>
+    <t>2013828</t>
+  </si>
+  <si>
+    <t>赵星然</t>
+  </si>
+  <si>
+    <t>2012665</t>
+  </si>
+  <si>
+    <t>臧悦言</t>
+  </si>
+  <si>
+    <t>2011730</t>
+  </si>
+  <si>
+    <t>吴越</t>
+  </si>
+  <si>
+    <t>2011720</t>
+  </si>
+  <si>
+    <t>李硕</t>
+  </si>
+  <si>
+    <t>2012022</t>
+  </si>
+  <si>
+    <t>何嘉骏</t>
+  </si>
+  <si>
+    <t>2012419</t>
+  </si>
+  <si>
+    <t>纪子昂</t>
+  </si>
+  <si>
+    <t>2012525</t>
+  </si>
+  <si>
+    <t>张楚晨</t>
+  </si>
+  <si>
+    <t>2012821</t>
+  </si>
+  <si>
+    <t>裴晓淞</t>
+  </si>
+  <si>
+    <t>2013342</t>
+  </si>
+  <si>
+    <t>吴麟霄</t>
+  </si>
+  <si>
+    <t>2013906</t>
+  </si>
+  <si>
+    <t>田皓文</t>
+  </si>
+  <si>
+    <t>选题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福字识别</t>
+  </si>
+  <si>
+    <t>福字识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011168</t>
+  </si>
+  <si>
+    <t>帅佳伟</t>
+  </si>
+  <si>
+    <t>2011837</t>
+  </si>
+  <si>
+    <t>陈妍欣</t>
+  </si>
+  <si>
+    <t>2012395</t>
+  </si>
+  <si>
+    <t>陈光正</t>
+  </si>
+  <si>
+    <t>2012446</t>
+  </si>
+  <si>
+    <t>万阳洋</t>
+  </si>
+  <si>
+    <t>2013045</t>
+  </si>
+  <si>
+    <t>余涧</t>
+  </si>
+  <si>
+    <t>2013646</t>
+  </si>
+  <si>
+    <t>谢昕澜</t>
+  </si>
+  <si>
+    <t>2013913</t>
+  </si>
+  <si>
+    <t>南洋</t>
+  </si>
+  <si>
+    <t>2013937</t>
+  </si>
+  <si>
+    <t>王震宇</t>
+  </si>
+  <si>
+    <t>2014078</t>
+  </si>
+  <si>
+    <t>张帆睿</t>
+  </si>
+  <si>
+    <t>2012185</t>
+  </si>
+  <si>
+    <t>刘颖</t>
+  </si>
+  <si>
+    <t>2012189</t>
+  </si>
+  <si>
+    <t>段宜芃帆</t>
+  </si>
+  <si>
+    <t>2012626</t>
+  </si>
+  <si>
+    <t>薛凯文</t>
+  </si>
+  <si>
+    <t>2012635</t>
+  </si>
+  <si>
+    <t>祁浩茹</t>
+  </si>
+  <si>
+    <t>2012927</t>
+  </si>
+  <si>
+    <t>于洁</t>
+  </si>
+  <si>
+    <t>2013103</t>
+  </si>
+  <si>
+    <t>龙君豪</t>
+  </si>
+  <si>
+    <t>2013218</t>
+  </si>
+  <si>
+    <t>林俊一</t>
+  </si>
+  <si>
+    <t>飞机检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011243</t>
+  </si>
+  <si>
+    <t>杨华章</t>
+  </si>
+  <si>
+    <t>2011582</t>
+  </si>
+  <si>
+    <t>王博瑶</t>
+  </si>
+  <si>
+    <t>2011633</t>
+  </si>
+  <si>
+    <t>王景锐</t>
+  </si>
+  <si>
+    <t>2011702</t>
+  </si>
+  <si>
+    <t>张畅</t>
+  </si>
+  <si>
+    <t>2011706</t>
+  </si>
+  <si>
+    <t>张义美</t>
+  </si>
+  <si>
+    <t>2012012</t>
+  </si>
+  <si>
+    <t>刘冠雄</t>
+  </si>
+  <si>
+    <t>2012608</t>
+  </si>
+  <si>
+    <t>彭钰雯</t>
+  </si>
+  <si>
+    <t>2012887</t>
+  </si>
+  <si>
+    <t>宋依睿</t>
+  </si>
+  <si>
+    <t>模型对比</t>
+  </si>
+  <si>
+    <t>模型对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012118</t>
+  </si>
+  <si>
+    <t>宋辰</t>
+  </si>
+  <si>
+    <t>2012186</t>
+  </si>
+  <si>
+    <t>马一卓</t>
+  </si>
+  <si>
+    <t>2012800</t>
+  </si>
+  <si>
+    <t>朱轩</t>
+  </si>
+  <si>
+    <t>2013120</t>
+  </si>
+  <si>
+    <t>宋驰洋</t>
+  </si>
+  <si>
+    <t>2013215</t>
+  </si>
+  <si>
+    <t>晋直方</t>
+  </si>
+  <si>
+    <t>2013233</t>
+  </si>
+  <si>
+    <t>叶翔辉</t>
+  </si>
+  <si>
+    <t>2013918</t>
+  </si>
+  <si>
+    <t>杨旭程</t>
+  </si>
+  <si>
+    <t>2013941</t>
+  </si>
+  <si>
+    <t>黄佳成</t>
+  </si>
+  <si>
+    <t>2011573</t>
+  </si>
+  <si>
+    <t>王靓荣</t>
+  </si>
+  <si>
+    <t>2012036</t>
+  </si>
+  <si>
+    <t>杨昌正</t>
+  </si>
+  <si>
+    <t>2012044</t>
+  </si>
+  <si>
+    <t>吕鸾逸</t>
+  </si>
+  <si>
+    <t>2012125</t>
+  </si>
+  <si>
+    <t>邢子谦</t>
+  </si>
+  <si>
+    <t>2012132</t>
+  </si>
+  <si>
+    <t>王若朴</t>
+  </si>
+  <si>
+    <t>2012637</t>
+  </si>
+  <si>
+    <t>张睿</t>
+  </si>
+  <si>
+    <t>2013389</t>
+  </si>
+  <si>
+    <t>陈敬丰</t>
+  </si>
+  <si>
+    <t>2011493</t>
+  </si>
+  <si>
+    <t>蓝仕瑞</t>
+  </si>
+  <si>
+    <t>2011717</t>
+  </si>
+  <si>
+    <t>马铭遥</t>
+  </si>
+  <si>
+    <t>2012375</t>
+  </si>
+  <si>
+    <t>徐雨辰</t>
+  </si>
+  <si>
+    <t>2012627</t>
+  </si>
+  <si>
+    <t>刘安琪</t>
+  </si>
+  <si>
+    <t>2012791</t>
+  </si>
+  <si>
+    <t>王钰迪</t>
+  </si>
+  <si>
+    <t>2013105</t>
+  </si>
+  <si>
+    <t>周碧缘</t>
+  </si>
+  <si>
+    <t>2013463</t>
+  </si>
+  <si>
+    <t>唐瑞苗</t>
+  </si>
+  <si>
+    <t>2013614</t>
+  </si>
+  <si>
+    <t>周雨晴</t>
+  </si>
+  <si>
+    <t>台风预测</t>
+  </si>
+  <si>
+    <t>台风预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012320</t>
+  </si>
+  <si>
+    <t>李前通</t>
+  </si>
+  <si>
+    <t>2013048</t>
+  </si>
+  <si>
+    <t>李林</t>
+  </si>
+  <si>
+    <t>2013533</t>
+  </si>
+  <si>
+    <t>明锐</t>
+  </si>
+  <si>
+    <t>2013756</t>
+  </si>
+  <si>
+    <t>林强</t>
+  </si>
+  <si>
+    <t>2013763</t>
+  </si>
+  <si>
+    <t>何肖骅</t>
+  </si>
+  <si>
+    <t>2013815</t>
+  </si>
+  <si>
+    <t>孙英凯</t>
+  </si>
+  <si>
+    <t>2011255</t>
+  </si>
+  <si>
+    <t>黄楷浩</t>
+  </si>
+  <si>
+    <t>2011257</t>
+  </si>
+  <si>
+    <t>邓墨菲</t>
+  </si>
+  <si>
+    <t>2012558</t>
+  </si>
+  <si>
+    <t>吴欣雨</t>
+  </si>
+  <si>
+    <t>2013376</t>
+  </si>
+  <si>
+    <t>曾庆驰</t>
+  </si>
+  <si>
+    <t>2013460</t>
+  </si>
+  <si>
+    <t>周鑫博</t>
+  </si>
+  <si>
+    <t>2013486</t>
+  </si>
+  <si>
+    <t>高若翔</t>
+  </si>
+  <si>
+    <t>2013618</t>
+  </si>
+  <si>
+    <t>张紫嫣</t>
+  </si>
+  <si>
+    <t>2013619</t>
+  </si>
+  <si>
+    <t>甘雨鑫</t>
+  </si>
+  <si>
+    <t>2011264</t>
+  </si>
+  <si>
+    <t>蔡智鹏</t>
+  </si>
+  <si>
+    <t>2013558</t>
+  </si>
+  <si>
+    <t>陈树文</t>
+  </si>
+  <si>
+    <t>2013990</t>
+  </si>
+  <si>
+    <t>王博豪</t>
+  </si>
+  <si>
+    <t>2011156</t>
+  </si>
+  <si>
+    <t>东逸飞</t>
+  </si>
+  <si>
+    <t>2011379</t>
+  </si>
+  <si>
+    <t>曹懿</t>
+  </si>
+  <si>
+    <t>2011402</t>
+  </si>
+  <si>
+    <t>刘岸林</t>
+  </si>
+  <si>
+    <t>2011410</t>
+  </si>
+  <si>
+    <t>孙放</t>
+  </si>
+  <si>
+    <t>2012383</t>
+  </si>
+  <si>
+    <t>刘祖印</t>
+  </si>
+  <si>
+    <t>2012397</t>
+  </si>
+  <si>
+    <t>荣易</t>
+  </si>
+  <si>
+    <t>2013007</t>
+  </si>
+  <si>
+    <t>武照清</t>
+  </si>
+  <si>
+    <t>2013333</t>
+  </si>
+  <si>
+    <t>汪雨杭</t>
+  </si>
+  <si>
+    <t>2013643</t>
+  </si>
+  <si>
+    <t>童鹏宇</t>
+  </si>
+  <si>
+    <t>特征选择</t>
+  </si>
+  <si>
+    <t>特征选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011726</t>
+  </si>
+  <si>
+    <t>司则林</t>
+  </si>
+  <si>
+    <t>2013158</t>
+  </si>
+  <si>
+    <t>蔡睿</t>
+  </si>
+  <si>
+    <t>2013383</t>
+  </si>
+  <si>
+    <t>周杨杰</t>
+  </si>
+  <si>
+    <t>2013456</t>
+  </si>
+  <si>
+    <t>陈浩宁</t>
+  </si>
+  <si>
+    <t>2013547</t>
+  </si>
+  <si>
+    <t>杨劭锐</t>
+  </si>
+  <si>
+    <t>2013609</t>
+  </si>
+  <si>
+    <t>易柏龄</t>
+  </si>
+  <si>
+    <t>2013621</t>
+  </si>
+  <si>
+    <t>李羽霄</t>
+  </si>
+  <si>
+    <t>2011855</t>
+  </si>
+  <si>
+    <t>唐治江</t>
+  </si>
+  <si>
+    <t>2013129</t>
+  </si>
+  <si>
+    <t>陈奕名</t>
+  </si>
+  <si>
+    <t>2010565</t>
+  </si>
+  <si>
+    <t>王潇颖</t>
+  </si>
+  <si>
+    <t>2011478</t>
+  </si>
+  <si>
+    <t>李穆</t>
+  </si>
+  <si>
+    <t>2012839</t>
+  </si>
+  <si>
+    <t>薛雨朦</t>
+  </si>
+  <si>
+    <t>2010403</t>
+  </si>
+  <si>
+    <t>薛明辉</t>
+  </si>
+  <si>
+    <t>2012284</t>
+  </si>
+  <si>
+    <t>张子晔</t>
+  </si>
+  <si>
+    <t>2012515</t>
+  </si>
+  <si>
+    <t>杨曼秋</t>
+  </si>
+  <si>
+    <t>2013008</t>
+  </si>
+  <si>
+    <t>高卓</t>
+  </si>
+  <si>
+    <t>2013347</t>
+  </si>
+  <si>
+    <t>李慧</t>
+  </si>
+  <si>
+    <t>2013477</t>
+  </si>
+  <si>
+    <t>蒋梦婕</t>
+  </si>
+  <si>
+    <t>2013554</t>
+  </si>
+  <si>
+    <t>张颖川</t>
+  </si>
+  <si>
+    <t>2013767</t>
+  </si>
+  <si>
+    <t>黎子韬</t>
+  </si>
+  <si>
+    <t>2011399</t>
+  </si>
+  <si>
+    <t>陈知涵</t>
+  </si>
+  <si>
+    <t>2011734</t>
+  </si>
+  <si>
+    <t>井婧哲</t>
+  </si>
+  <si>
+    <t>2011903</t>
+  </si>
+  <si>
+    <t>刘佳仪</t>
+  </si>
+  <si>
+    <t>2012068</t>
+  </si>
+  <si>
+    <t>郭懿影</t>
+  </si>
+  <si>
+    <t>2013101</t>
+  </si>
+  <si>
+    <t>冯兰婷</t>
+  </si>
+  <si>
+    <t>2013124</t>
+  </si>
+  <si>
+    <t>吴文婷</t>
+  </si>
+  <si>
+    <t>2013611</t>
+  </si>
+  <si>
+    <t>汤子悦</t>
+  </si>
+  <si>
+    <t>2013943</t>
+  </si>
+  <si>
+    <t>练建钧</t>
+  </si>
+  <si>
+    <t>1910418</t>
+  </si>
+  <si>
+    <t>邓志成</t>
+  </si>
+  <si>
+    <t>2011099</t>
+  </si>
+  <si>
+    <t>袁也</t>
+  </si>
+  <si>
+    <t>2011472</t>
+  </si>
+  <si>
+    <t>樊蒙语</t>
+  </si>
+  <si>
+    <t>2012196</t>
+  </si>
+  <si>
+    <t>陈靖涛</t>
+  </si>
+  <si>
+    <t>2012636</t>
+  </si>
+  <si>
+    <t>刘嘉琪</t>
+  </si>
+  <si>
+    <t>2013182</t>
+  </si>
+  <si>
+    <t>曹骄龙</t>
+  </si>
+  <si>
+    <t>2011586</t>
+  </si>
+  <si>
+    <t>张文豪</t>
+  </si>
+  <si>
+    <t>2012061</t>
+  </si>
+  <si>
+    <t>丁恩辉</t>
+  </si>
+  <si>
+    <t>2012618</t>
+  </si>
+  <si>
+    <t>李斯羽</t>
+  </si>
+  <si>
+    <t>2012915</t>
+  </si>
+  <si>
+    <t>贾宇航</t>
+  </si>
+  <si>
+    <t>2012929</t>
+  </si>
+  <si>
+    <t>郭龄聪</t>
+  </si>
+  <si>
+    <t>宋卓凡</t>
+  </si>
+  <si>
+    <t>邵琦</t>
+  </si>
+  <si>
+    <t>上机作业提交时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +867,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +901,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1191,1300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45063</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>45070</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D99" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D103" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D104" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D105" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D106" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D107" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D108" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D109" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F110" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D115" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D119" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D120" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D123" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D125" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D126" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D129" s="2">
+        <v>2011591</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D130" s="2">
+        <v>2012955</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>